--- a/Code/Results/Cases/Case_0_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_64/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4102088503189236</v>
+        <v>0.4135716542737669</v>
       </c>
       <c r="D2">
-        <v>0.0336967802101853</v>
+        <v>0.03977780226842853</v>
       </c>
       <c r="E2">
-        <v>0.1835688108733251</v>
+        <v>0.1747898442481883</v>
       </c>
       <c r="F2">
-        <v>0.7593351324108824</v>
+        <v>1.060907389764225</v>
       </c>
       <c r="G2">
-        <v>0.0007931602444470366</v>
+        <v>0.002460226391477634</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.692200516757339</v>
+        <v>1.482885458775854</v>
       </c>
       <c r="L2">
-        <v>0.1693100370508276</v>
+        <v>0.1526099929091203</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7879666468691084</v>
+        <v>1.20631993277059</v>
       </c>
       <c r="O2">
-        <v>2.317009180982268</v>
+        <v>3.776928602187127</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3660808496630068</v>
+        <v>0.4046509031364565</v>
       </c>
       <c r="D3">
-        <v>0.03199748441359773</v>
+        <v>0.03917341654105755</v>
       </c>
       <c r="E3">
-        <v>0.1632834004218395</v>
+        <v>0.1706213479563345</v>
       </c>
       <c r="F3">
-        <v>0.6998270844256353</v>
+        <v>1.055964088884096</v>
       </c>
       <c r="G3">
-        <v>0.0007983132719634729</v>
+        <v>0.002463638155374274</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.206469362737778</v>
+        <v>1.341241579616224</v>
       </c>
       <c r="L3">
-        <v>0.150150239883267</v>
+        <v>0.1486158785716896</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8003111309160289</v>
+        <v>1.21327461594904</v>
       </c>
       <c r="O3">
-        <v>2.170786816217827</v>
+        <v>3.777273930213937</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3395173917883199</v>
+        <v>0.3994007138429367</v>
       </c>
       <c r="D4">
-        <v>0.03095394610575397</v>
+        <v>0.03880172142994809</v>
       </c>
       <c r="E4">
-        <v>0.1510734855748481</v>
+        <v>0.1681607113829884</v>
       </c>
       <c r="F4">
-        <v>0.6650221185882117</v>
+        <v>1.05366492320082</v>
       </c>
       <c r="G4">
-        <v>0.000801576224073175</v>
+        <v>0.00246584457850367</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.909277763295449</v>
+        <v>1.254430759288908</v>
       </c>
       <c r="L4">
-        <v>0.1386190353636039</v>
+        <v>0.146252070831153</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8089498501449484</v>
+        <v>1.218034820363592</v>
       </c>
       <c r="O4">
-        <v>2.086852364351728</v>
+        <v>3.780042658595164</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.328814526423173</v>
+        <v>0.3973183445554014</v>
       </c>
       <c r="D5">
-        <v>0.03052857297714695</v>
+        <v>0.03865011737331159</v>
       </c>
       <c r="E5">
-        <v>0.1461539604779531</v>
+        <v>0.1671828182023773</v>
       </c>
       <c r="F5">
-        <v>0.6512432604459448</v>
+        <v>1.052912730238205</v>
       </c>
       <c r="G5">
-        <v>0.0008029314020083803</v>
+        <v>0.002466771860239559</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.788376196815648</v>
+        <v>1.219096284854885</v>
       </c>
       <c r="L5">
-        <v>0.1339730616512043</v>
+        <v>0.1453110479690665</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8127272028300112</v>
+        <v>1.220098023510722</v>
       </c>
       <c r="O5">
-        <v>2.054017974539391</v>
+        <v>3.781812600682031</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3270443628695148</v>
+        <v>0.3969760189206397</v>
       </c>
       <c r="D6">
-        <v>0.03045793052581303</v>
+        <v>0.03862493592500371</v>
       </c>
       <c r="E6">
-        <v>0.1453403091850767</v>
+        <v>0.1670219393460357</v>
       </c>
       <c r="F6">
-        <v>0.6489788365742015</v>
+        <v>1.052798976620423</v>
       </c>
       <c r="G6">
-        <v>0.0008031579856506297</v>
+        <v>0.002466927537340428</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.768311446794485</v>
+        <v>1.213231585619724</v>
       </c>
       <c r="L6">
-        <v>0.1332046531620463</v>
+        <v>0.1451561347060917</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8133696904123511</v>
+        <v>1.220448073776829</v>
       </c>
       <c r="O6">
-        <v>2.048645739848922</v>
+        <v>3.782145216955968</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3393725702674715</v>
+        <v>0.3993723989856051</v>
       </c>
       <c r="D7">
-        <v>0.03094820997144865</v>
+        <v>0.03879967737128354</v>
       </c>
       <c r="E7">
-        <v>0.1510069190795704</v>
+        <v>0.1681474226344477</v>
       </c>
       <c r="F7">
-        <v>0.6648346946286807</v>
+        <v>1.053654031339612</v>
       </c>
       <c r="G7">
-        <v>0.000801594396419951</v>
+        <v>0.002465856970065073</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.90764647976718</v>
+        <v>1.253954055439664</v>
       </c>
       <c r="L7">
-        <v>0.1385561702170222</v>
+        <v>0.1462392898250187</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8089997641307605</v>
+        <v>1.218062145654869</v>
       </c>
       <c r="O7">
-        <v>2.086404131529093</v>
+        <v>3.780063932240495</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3948759964947897</v>
+        <v>0.4104486205837361</v>
       </c>
       <c r="D8">
-        <v>0.03311084349664384</v>
+        <v>0.03956954364819154</v>
       </c>
       <c r="E8">
-        <v>0.1765199837526339</v>
+        <v>0.1733320209080986</v>
       </c>
       <c r="F8">
-        <v>0.7384375381750061</v>
+        <v>1.059049959863799</v>
       </c>
       <c r="G8">
-        <v>0.0007949168453667807</v>
+        <v>0.00246137966070813</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.524466694997727</v>
+        <v>1.434014562033326</v>
       </c>
       <c r="L8">
-        <v>0.1626519573510734</v>
+        <v>0.1512144147799077</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7919973946076695</v>
+        <v>1.208616304877779</v>
       </c>
       <c r="O8">
-        <v>2.265315740219478</v>
+        <v>3.776516270554993</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5085019465545031</v>
+        <v>0.4339735444889357</v>
       </c>
       <c r="D9">
-        <v>0.03735504149744884</v>
+        <v>0.04107388652258237</v>
       </c>
       <c r="E9">
-        <v>0.228771413521585</v>
+        <v>0.1842847787315662</v>
       </c>
       <c r="F9">
-        <v>0.8980455864328292</v>
+        <v>1.075489443688397</v>
       </c>
       <c r="G9">
-        <v>0.0007825779417167997</v>
+        <v>0.002453481065173703</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.745230540937143</v>
+        <v>1.788321434045542</v>
       </c>
       <c r="L9">
-        <v>0.2120210580737591</v>
+        <v>0.1616756405803983</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7675116560541682</v>
+        <v>1.193974362810067</v>
       </c>
       <c r="O9">
-        <v>2.667426379040251</v>
+        <v>3.789907073755273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5957592230124078</v>
+        <v>0.4523624271112681</v>
       </c>
       <c r="D10">
-        <v>0.04048306936540769</v>
+        <v>0.04217516513717356</v>
       </c>
       <c r="E10">
-        <v>0.268927886759613</v>
+        <v>0.1928140630590747</v>
       </c>
       <c r="F10">
-        <v>1.02690768610637</v>
+        <v>1.091166830522823</v>
       </c>
       <c r="G10">
-        <v>0.000773928991110761</v>
+        <v>0.002448209692843182</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.653336815739522</v>
+        <v>2.049322490486702</v>
       </c>
       <c r="L10">
-        <v>0.2499905456907356</v>
+        <v>0.169795191094579</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7555987962745121</v>
+        <v>1.185575226496212</v>
       </c>
       <c r="O10">
-        <v>3.001442338971458</v>
+        <v>3.812243133595445</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6364851068726978</v>
+        <v>0.4609692301995381</v>
       </c>
       <c r="D11">
-        <v>0.04191033452553938</v>
+        <v>0.04267516828826246</v>
       </c>
       <c r="E11">
-        <v>0.2876812284177888</v>
+        <v>0.1967997582766756</v>
       </c>
       <c r="F11">
-        <v>1.088606573898247</v>
+        <v>1.099086701078761</v>
       </c>
       <c r="G11">
-        <v>0.0007700741037308476</v>
+        <v>0.002445925876506268</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>6.069976527578945</v>
+        <v>2.168201103034107</v>
       </c>
       <c r="L11">
-        <v>0.267732477774274</v>
+        <v>0.1735840621492315</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7516641377784765</v>
+        <v>1.182264865233051</v>
       </c>
       <c r="O11">
-        <v>3.16356402069863</v>
+        <v>3.825138894416909</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6520745302963178</v>
+        <v>0.4642631970394859</v>
       </c>
       <c r="D12">
-        <v>0.0424516229681231</v>
+        <v>0.04286435289379398</v>
       </c>
       <c r="E12">
-        <v>0.2948617730927623</v>
+        <v>0.1983242743404787</v>
       </c>
       <c r="F12">
-        <v>1.112464099691039</v>
+        <v>1.102199533179842</v>
       </c>
       <c r="G12">
-        <v>0.0007686248392835363</v>
+        <v>0.002445077380163252</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.228354114750573</v>
+        <v>2.213237372207857</v>
       </c>
       <c r="L12">
-        <v>0.2745275364619886</v>
+        <v>0.1750325576062295</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7504028393209836</v>
+        <v>1.181084606935272</v>
       </c>
       <c r="O12">
-        <v>3.226582831342739</v>
+        <v>3.830417017643043</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6487093019767087</v>
+        <v>0.4635522362652011</v>
       </c>
       <c r="D13">
-        <v>0.04233500720810923</v>
+        <v>0.04282361577742222</v>
       </c>
       <c r="E13">
-        <v>0.2933116426997771</v>
+        <v>0.1979952652545691</v>
       </c>
       <c r="F13">
-        <v>1.10730314888545</v>
+        <v>1.101524063460289</v>
       </c>
       <c r="G13">
-        <v>0.0007689365133455166</v>
+        <v>0.002445259393835752</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>6.194216116736015</v>
+        <v>2.203537165516479</v>
       </c>
       <c r="L13">
-        <v>0.2730605397131711</v>
+        <v>0.1747199868733986</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7506640564213285</v>
+        <v>1.18133553795532</v>
       </c>
       <c r="O13">
-        <v>3.212935484236255</v>
+        <v>3.829262697646556</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6377641878399629</v>
+        <v>0.4612395301598724</v>
       </c>
       <c r="D14">
-        <v>0.04195484912041536</v>
+        <v>0.04269073582936045</v>
       </c>
       <c r="E14">
-        <v>0.2882703360163461</v>
+        <v>0.1969248759702751</v>
       </c>
       <c r="F14">
-        <v>1.090559149448524</v>
+        <v>1.09934051357186</v>
       </c>
       <c r="G14">
-        <v>0.0007699546671572632</v>
+        <v>0.002445855743311249</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>6.082993632824241</v>
+        <v>2.171905882816816</v>
       </c>
       <c r="L14">
-        <v>0.2682899216750343</v>
+        <v>0.173702955321005</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7515556954205209</v>
+        <v>1.18216629609222</v>
       </c>
       <c r="O14">
-        <v>3.168715021826273</v>
+        <v>3.825565208270575</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6310823852484759</v>
+        <v>0.4598274577616337</v>
       </c>
       <c r="D15">
-        <v>0.04172210358992601</v>
+        <v>0.0426093222814572</v>
       </c>
       <c r="E15">
-        <v>0.2851929731887068</v>
+        <v>0.196271214382044</v>
       </c>
       <c r="F15">
-        <v>1.080368818363212</v>
+        <v>1.098017852013754</v>
       </c>
       <c r="G15">
-        <v>0.0007705796535646403</v>
+        <v>0.00244622314953523</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>6.014948481867236</v>
+        <v>2.152533298923117</v>
       </c>
       <c r="L15">
-        <v>0.2653780363429519</v>
+        <v>0.1730817835400558</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7521321028719683</v>
+        <v>1.182684702961041</v>
       </c>
       <c r="O15">
-        <v>3.141845682582726</v>
+        <v>3.823351845484893</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.5931200446376579</v>
+        <v>0.4518048152665415</v>
       </c>
       <c r="D16">
-        <v>0.04038989693119532</v>
+        <v>0.04214246781114639</v>
       </c>
       <c r="E16">
-        <v>0.2677128562907143</v>
+        <v>0.1925557170301104</v>
       </c>
       <c r="F16">
-        <v>1.022941710255054</v>
+        <v>1.090665143292185</v>
       </c>
       <c r="G16">
-        <v>0.0007741824392425629</v>
+        <v>0.002448361235706125</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.626187655423848</v>
+        <v>2.04155632007587</v>
       </c>
       <c r="L16">
-        <v>0.2488412710915355</v>
+        <v>0.1695494991246562</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7558870782883673</v>
+        <v>1.185801829340903</v>
       </c>
       <c r="O16">
-        <v>2.991065722109198</v>
+        <v>3.811455527404036</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.570108713030578</v>
+        <v>0.4469450755017874</v>
       </c>
       <c r="D17">
-        <v>0.03957386470514734</v>
+        <v>0.04185580702407776</v>
       </c>
       <c r="E17">
-        <v>0.2571201086698025</v>
+        <v>0.1903034634068419</v>
       </c>
       <c r="F17">
-        <v>0.9885353308280003</v>
+        <v>1.086356652641498</v>
       </c>
       <c r="G17">
-        <v>0.0007764123629988788</v>
+        <v>0.002449702063457575</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.388667348784793</v>
+        <v>1.973512173866993</v>
       </c>
       <c r="L17">
-        <v>0.2388229255342793</v>
+        <v>0.1674069774077509</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.758581277291853</v>
+        <v>1.187844751082281</v>
       </c>
       <c r="O17">
-        <v>2.901285259173306</v>
+        <v>3.804859074032748</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5569691162383208</v>
+        <v>0.4441726221170939</v>
       </c>
       <c r="D18">
-        <v>0.03910489695705621</v>
+        <v>0.04169083656431383</v>
       </c>
       <c r="E18">
-        <v>0.2510725840744428</v>
+        <v>0.1890179724904044</v>
       </c>
       <c r="F18">
-        <v>0.9690321953767267</v>
+        <v>1.083952682185455</v>
       </c>
       <c r="G18">
-        <v>0.0007777025060018103</v>
+        <v>0.002450484021951911</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.252378631956844</v>
+        <v>1.934389007854179</v>
       </c>
       <c r="L18">
-        <v>0.233104231612316</v>
+        <v>0.1661836184980814</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7602696601079231</v>
+        <v>1.189067836766398</v>
       </c>
       <c r="O18">
-        <v>2.85059311692504</v>
+        <v>3.80132230762635</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5525361962943975</v>
+        <v>0.4432378222992384</v>
       </c>
       <c r="D19">
-        <v>0.03894617445985205</v>
+        <v>0.04163496529545085</v>
       </c>
       <c r="E19">
-        <v>0.2490324834055855</v>
+        <v>0.1885844348600898</v>
       </c>
       <c r="F19">
-        <v>0.962476502053434</v>
+        <v>1.083151463456133</v>
       </c>
       <c r="G19">
-        <v>0.0007781406504159556</v>
+        <v>0.002450750628368007</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.206286929894645</v>
+        <v>1.921145038856139</v>
       </c>
       <c r="L19">
-        <v>0.2311752044368518</v>
+        <v>0.165770948494611</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7608647058449662</v>
+        <v>1.189490208515082</v>
       </c>
       <c r="O19">
-        <v>2.833587565420487</v>
+        <v>3.800168972193973</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.572548249796256</v>
+        <v>0.4474600494512799</v>
       </c>
       <c r="D20">
-        <v>0.03966069079686463</v>
+        <v>0.04188633206137382</v>
       </c>
       <c r="E20">
-        <v>0.258242988700836</v>
+        <v>0.1905421901330016</v>
       </c>
       <c r="F20">
-        <v>0.9921679431933512</v>
+        <v>1.086807620606493</v>
       </c>
       <c r="G20">
-        <v>0.0007761742090016677</v>
+        <v>0.002449558218077441</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.413917310834961</v>
+        <v>1.980754150363794</v>
       </c>
       <c r="L20">
-        <v>0.2398848207156874</v>
+        <v>0.1676341246168818</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7582800090415418</v>
+        <v>1.187622306195195</v>
       </c>
       <c r="O20">
-        <v>2.910743372547614</v>
+        <v>3.805534633318331</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6409743295079409</v>
+        <v>0.4619178845811689</v>
       </c>
       <c r="D21">
-        <v>0.0420664869804952</v>
+        <v>0.04272977024177038</v>
       </c>
       <c r="E21">
-        <v>0.289748866884679</v>
+        <v>0.1972388620037009</v>
       </c>
       <c r="F21">
-        <v>1.095463447343747</v>
+        <v>1.099978784679791</v>
       </c>
       <c r="G21">
-        <v>0.0007696553337378725</v>
+        <v>0.002445680138306956</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>6.115645133312739</v>
+        <v>2.181196241476243</v>
       </c>
       <c r="L21">
-        <v>0.2696890130900584</v>
+        <v>0.1740013091649786</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7512874658121547</v>
+        <v>1.181920293592256</v>
       </c>
       <c r="O21">
-        <v>3.18165811391026</v>
+        <v>3.826640524425045</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6866806572916175</v>
+        <v>0.4715695151158457</v>
       </c>
       <c r="D22">
-        <v>0.04364367043745432</v>
+        <v>0.04328009098045982</v>
       </c>
       <c r="E22">
-        <v>0.3108055013380451</v>
+        <v>0.201704247733872</v>
       </c>
       <c r="F22">
-        <v>1.165876448429046</v>
+        <v>1.109250111409338</v>
       </c>
       <c r="G22">
-        <v>0.0007654555636326103</v>
+        <v>0.00244324076640788</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.577843861719543</v>
+        <v>2.312309699959201</v>
       </c>
       <c r="L22">
-        <v>0.2896189509801417</v>
+        <v>0.1782426911609747</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7480583140727788</v>
+        <v>1.178620928590007</v>
       </c>
       <c r="O22">
-        <v>3.368286017689456</v>
+        <v>3.842736213043622</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6621893759871682</v>
+        <v>0.4663997153979835</v>
       </c>
       <c r="D23">
-        <v>0.04280138172957493</v>
+        <v>0.04298646327841738</v>
       </c>
       <c r="E23">
-        <v>0.2995213047932381</v>
+        <v>0.1993128614101849</v>
       </c>
       <c r="F23">
-        <v>1.128012050705664</v>
+        <v>1.104241008863184</v>
       </c>
       <c r="G23">
-        <v>0.0007676918397188248</v>
+        <v>0.002444534022950618</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.33079787455091</v>
+        <v>2.242322219202038</v>
       </c>
       <c r="L23">
-        <v>0.2789374602798347</v>
+        <v>0.175971648423328</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7496537173353062</v>
+        <v>1.180342800634833</v>
       </c>
       <c r="O23">
-        <v>3.267745577569713</v>
+        <v>3.833934534217207</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5714450565451727</v>
+        <v>0.447227162837919</v>
       </c>
       <c r="D24">
-        <v>0.03962143617435032</v>
+        <v>0.04187253220501219</v>
       </c>
       <c r="E24">
-        <v>0.2577352032959936</v>
+        <v>0.1904342326290305</v>
       </c>
       <c r="F24">
-        <v>0.9905247784171962</v>
+        <v>1.086603510505682</v>
       </c>
       <c r="G24">
-        <v>0.0007762818530407458</v>
+        <v>0.002449623215997607</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.402500985154234</v>
+        <v>1.977480064120812</v>
       </c>
       <c r="L24">
-        <v>0.2394046109159689</v>
+        <v>0.1675314051862671</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7584157791892778</v>
+        <v>1.187722722182244</v>
       </c>
       <c r="O24">
-        <v>2.906464494111816</v>
+        <v>3.805228416803658</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.477166370109245</v>
+        <v>0.4274157273099775</v>
       </c>
       <c r="D25">
-        <v>0.03620578433686106</v>
+        <v>0.04066756847577579</v>
       </c>
       <c r="E25">
-        <v>0.2143576336738064</v>
+        <v>0.181237309113925</v>
       </c>
       <c r="F25">
-        <v>0.8530070958848768</v>
+        <v>1.070412086016191</v>
       </c>
       <c r="G25">
-        <v>0.000785839414930052</v>
+        <v>0.002455524065573779</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.413353412906417</v>
+        <v>1.692347339377989</v>
       </c>
       <c r="L25">
-        <v>0.1983987234037272</v>
+        <v>0.1587697240998125</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7731209292574377</v>
+        <v>1.197520716973052</v>
       </c>
       <c r="O25">
-        <v>2.552434985816149</v>
+        <v>3.784096522411318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_64/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_64/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4135716542737669</v>
+        <v>0.4102088503191794</v>
       </c>
       <c r="D2">
-        <v>0.03977780226842853</v>
+        <v>0.0336967802105903</v>
       </c>
       <c r="E2">
-        <v>0.1747898442481883</v>
+        <v>0.1835688108733393</v>
       </c>
       <c r="F2">
-        <v>1.060907389764225</v>
+        <v>0.7593351324108824</v>
       </c>
       <c r="G2">
-        <v>0.002460226391477634</v>
+        <v>0.0007931602443887216</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.482885458775854</v>
+        <v>3.692200516757339</v>
       </c>
       <c r="L2">
-        <v>0.1526099929091203</v>
+        <v>0.1693100370508915</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.20631993277059</v>
+        <v>0.7879666468691013</v>
       </c>
       <c r="O2">
-        <v>3.776928602187127</v>
+        <v>2.317009180982268</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4046509031364565</v>
+        <v>0.3660808496630921</v>
       </c>
       <c r="D3">
-        <v>0.03917341654105755</v>
+        <v>0.03199748441354799</v>
       </c>
       <c r="E3">
-        <v>0.1706213479563345</v>
+        <v>0.1632834004218751</v>
       </c>
       <c r="F3">
-        <v>1.055964088884096</v>
+        <v>0.6998270844256282</v>
       </c>
       <c r="G3">
-        <v>0.002463638155374274</v>
+        <v>0.0007983132719644356</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.341241579616224</v>
+        <v>3.206469362737892</v>
       </c>
       <c r="L3">
-        <v>0.1486158785716896</v>
+        <v>0.150150239883267</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.21327461594904</v>
+        <v>0.8003111309159721</v>
       </c>
       <c r="O3">
-        <v>3.777273930213937</v>
+        <v>2.170786816217884</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3994007138429367</v>
+        <v>0.3395173917883199</v>
       </c>
       <c r="D4">
-        <v>0.03880172142994809</v>
+        <v>0.03095394610582147</v>
       </c>
       <c r="E4">
-        <v>0.1681607113829884</v>
+        <v>0.1510734855748481</v>
       </c>
       <c r="F4">
-        <v>1.05366492320082</v>
+        <v>0.6650221185882117</v>
       </c>
       <c r="G4">
-        <v>0.00246584457850367</v>
+        <v>0.0008015762240489369</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.254430759288908</v>
+        <v>2.909277763295336</v>
       </c>
       <c r="L4">
-        <v>0.146252070831153</v>
+        <v>0.1386190353635754</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.218034820363592</v>
+        <v>0.8089498501450194</v>
       </c>
       <c r="O4">
-        <v>3.780042658595164</v>
+        <v>2.086852364351756</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3973183445554014</v>
+        <v>0.3288145264230593</v>
       </c>
       <c r="D5">
-        <v>0.03865011737331159</v>
+        <v>0.03052857297732814</v>
       </c>
       <c r="E5">
-        <v>0.1671828182023773</v>
+        <v>0.1461539604779354</v>
       </c>
       <c r="F5">
-        <v>1.052912730238205</v>
+        <v>0.6512432604459377</v>
       </c>
       <c r="G5">
-        <v>0.002466771860239559</v>
+        <v>0.0008029314020329692</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.219096284854885</v>
+        <v>2.788376196815619</v>
       </c>
       <c r="L5">
-        <v>0.1453110479690665</v>
+        <v>0.1339730616511901</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.220098023510722</v>
+        <v>0.8127272028300041</v>
       </c>
       <c r="O5">
-        <v>3.781812600682031</v>
+        <v>2.054017974539448</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3969760189206397</v>
+        <v>0.3270443628697706</v>
       </c>
       <c r="D6">
-        <v>0.03862493592500371</v>
+        <v>0.03045793052582724</v>
       </c>
       <c r="E6">
-        <v>0.1670219393460357</v>
+        <v>0.1453403091850625</v>
       </c>
       <c r="F6">
-        <v>1.052798976620423</v>
+        <v>0.6489788365741731</v>
       </c>
       <c r="G6">
-        <v>0.002466927537340428</v>
+        <v>0.0008031579856213001</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.213231585619724</v>
+        <v>2.76831144679457</v>
       </c>
       <c r="L6">
-        <v>0.1451561347060917</v>
+        <v>0.1332046531620463</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.220448073776829</v>
+        <v>0.8133696904123511</v>
       </c>
       <c r="O6">
-        <v>3.782145216955968</v>
+        <v>2.048645739848808</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3993723989856051</v>
+        <v>0.3393725702672725</v>
       </c>
       <c r="D7">
-        <v>0.03879967737128354</v>
+        <v>0.0309482099714522</v>
       </c>
       <c r="E7">
-        <v>0.1681474226344477</v>
+        <v>0.1510069190795562</v>
       </c>
       <c r="F7">
-        <v>1.053654031339612</v>
+        <v>0.6648346946286736</v>
       </c>
       <c r="G7">
-        <v>0.002465856970065073</v>
+        <v>0.0008015943964491499</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.253954055439664</v>
+        <v>2.907646479767095</v>
       </c>
       <c r="L7">
-        <v>0.1462392898250187</v>
+        <v>0.1385561702171643</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.218062145654869</v>
+        <v>0.8089997641307463</v>
       </c>
       <c r="O7">
-        <v>3.780063932240495</v>
+        <v>2.086404131529036</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4104486205837361</v>
+        <v>0.3948759964947897</v>
       </c>
       <c r="D8">
-        <v>0.03956954364819154</v>
+        <v>0.03311084349693516</v>
       </c>
       <c r="E8">
-        <v>0.1733320209080986</v>
+        <v>0.1765199837526339</v>
       </c>
       <c r="F8">
-        <v>1.059049959863799</v>
+        <v>0.7384375381750061</v>
       </c>
       <c r="G8">
-        <v>0.00246137966070813</v>
+        <v>0.0007949168453946306</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.434014562033326</v>
+        <v>3.524466694997727</v>
       </c>
       <c r="L8">
-        <v>0.1512144147799077</v>
+        <v>0.1626519573510095</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.208616304877779</v>
+        <v>0.7919973946076695</v>
       </c>
       <c r="O8">
-        <v>3.776516270554993</v>
+        <v>2.265315740219478</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4339735444889357</v>
+        <v>0.5085019465543894</v>
       </c>
       <c r="D9">
-        <v>0.04107388652258237</v>
+        <v>0.0373550414971433</v>
       </c>
       <c r="E9">
-        <v>0.1842847787315662</v>
+        <v>0.2287714135215779</v>
       </c>
       <c r="F9">
-        <v>1.075489443688397</v>
+        <v>0.8980455864328292</v>
       </c>
       <c r="G9">
-        <v>0.002453481065173703</v>
+        <v>0.0007825779417167878</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.788321434045542</v>
+        <v>4.745230540937257</v>
       </c>
       <c r="L9">
-        <v>0.1616756405803983</v>
+        <v>0.2120210580737023</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.193974362810067</v>
+        <v>0.7675116560541539</v>
       </c>
       <c r="O9">
-        <v>3.789907073755273</v>
+        <v>2.667426379040336</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4523624271112681</v>
+        <v>0.5957592230123794</v>
       </c>
       <c r="D10">
-        <v>0.04217516513717356</v>
+        <v>0.04048306936515189</v>
       </c>
       <c r="E10">
-        <v>0.1928140630590747</v>
+        <v>0.2689278867596201</v>
       </c>
       <c r="F10">
-        <v>1.091166830522823</v>
+        <v>1.02690768610637</v>
       </c>
       <c r="G10">
-        <v>0.002448209692843182</v>
+        <v>0.000773928991111823</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.049322490486702</v>
+        <v>5.653336815739465</v>
       </c>
       <c r="L10">
-        <v>0.169795191094579</v>
+        <v>0.2499905456907641</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.185575226496212</v>
+        <v>0.755598796274441</v>
       </c>
       <c r="O10">
-        <v>3.812243133595445</v>
+        <v>3.001442338971373</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4609692301995381</v>
+        <v>0.6364851068725557</v>
       </c>
       <c r="D11">
-        <v>0.04267516828826246</v>
+        <v>0.04191033452541859</v>
       </c>
       <c r="E11">
-        <v>0.1967997582766756</v>
+        <v>0.2876812284177888</v>
       </c>
       <c r="F11">
-        <v>1.099086701078761</v>
+        <v>1.088606573898261</v>
       </c>
       <c r="G11">
-        <v>0.002445925876506268</v>
+        <v>0.0007700741037302901</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.168201103034107</v>
+        <v>6.069976527579001</v>
       </c>
       <c r="L11">
-        <v>0.1735840621492315</v>
+        <v>0.2677324777743735</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.182264865233051</v>
+        <v>0.7516641377784481</v>
       </c>
       <c r="O11">
-        <v>3.825138894416909</v>
+        <v>3.16356402069863</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4642631970394859</v>
+        <v>0.6520745302962041</v>
       </c>
       <c r="D12">
-        <v>0.04286435289379398</v>
+        <v>0.0424516229681231</v>
       </c>
       <c r="E12">
-        <v>0.1983242743404787</v>
+        <v>0.2948617730927694</v>
       </c>
       <c r="F12">
-        <v>1.102199533179842</v>
+        <v>1.112464099691024</v>
       </c>
       <c r="G12">
-        <v>0.002445077380163252</v>
+        <v>0.0007686248393190537</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.213237372207857</v>
+        <v>6.228354114750516</v>
       </c>
       <c r="L12">
-        <v>0.1750325576062295</v>
+        <v>0.2745275364619317</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.181084606935272</v>
+        <v>0.7504028393209836</v>
       </c>
       <c r="O12">
-        <v>3.830417017643043</v>
+        <v>3.226582831342682</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4635522362652011</v>
+        <v>0.6487093019765098</v>
       </c>
       <c r="D13">
-        <v>0.04282361577742222</v>
+        <v>0.04233500720800265</v>
       </c>
       <c r="E13">
-        <v>0.1979952652545691</v>
+        <v>0.2933116426997628</v>
       </c>
       <c r="F13">
-        <v>1.101524063460289</v>
+        <v>1.10730314888545</v>
       </c>
       <c r="G13">
-        <v>0.002445259393835752</v>
+        <v>0.0007689365132816241</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.203537165516479</v>
+        <v>6.194216116736243</v>
       </c>
       <c r="L13">
-        <v>0.1747199868733986</v>
+        <v>0.2730605397131143</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.18133553795532</v>
+        <v>0.7506640564213569</v>
       </c>
       <c r="O13">
-        <v>3.829262697646556</v>
+        <v>3.21293548423634</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4612395301598724</v>
+        <v>0.6377641878399345</v>
       </c>
       <c r="D14">
-        <v>0.04269073582936045</v>
+        <v>0.04195484912052905</v>
       </c>
       <c r="E14">
-        <v>0.1969248759702751</v>
+        <v>0.2882703360163461</v>
       </c>
       <c r="F14">
-        <v>1.09934051357186</v>
+        <v>1.090559149448524</v>
       </c>
       <c r="G14">
-        <v>0.002445855743311249</v>
+        <v>0.0007699546671569526</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.171905882816816</v>
+        <v>6.082993632824127</v>
       </c>
       <c r="L14">
-        <v>0.173702955321005</v>
+        <v>0.2682899216751196</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.18216629609222</v>
+        <v>0.7515556954204641</v>
       </c>
       <c r="O14">
-        <v>3.825565208270575</v>
+        <v>3.168715021826273</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4598274577616337</v>
+        <v>0.6310823852484759</v>
       </c>
       <c r="D15">
-        <v>0.0426093222814572</v>
+        <v>0.04172210358987627</v>
       </c>
       <c r="E15">
-        <v>0.196271214382044</v>
+        <v>0.2851929731886784</v>
       </c>
       <c r="F15">
-        <v>1.098017852013754</v>
+        <v>1.080368818363198</v>
       </c>
       <c r="G15">
-        <v>0.00244622314953523</v>
+        <v>0.0007705796535645393</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.152533298923117</v>
+        <v>6.014948481867123</v>
       </c>
       <c r="L15">
-        <v>0.1730817835400558</v>
+        <v>0.2653780363428524</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.182684702961041</v>
+        <v>0.7521321028718972</v>
       </c>
       <c r="O15">
-        <v>3.823351845484893</v>
+        <v>3.141845682582641</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4518048152665415</v>
+        <v>0.5931200446376295</v>
       </c>
       <c r="D16">
-        <v>0.04214246781114639</v>
+        <v>0.04038989693130901</v>
       </c>
       <c r="E16">
-        <v>0.1925557170301104</v>
+        <v>0.2677128562907285</v>
       </c>
       <c r="F16">
-        <v>1.090665143292185</v>
+        <v>1.022941710255054</v>
       </c>
       <c r="G16">
-        <v>0.002448361235706125</v>
+        <v>0.0007741824391802599</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.04155632007587</v>
+        <v>5.626187655423905</v>
       </c>
       <c r="L16">
-        <v>0.1695494991246562</v>
+        <v>0.2488412710914787</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.185801829340903</v>
+        <v>0.7558870782883673</v>
       </c>
       <c r="O16">
-        <v>3.811455527404036</v>
+        <v>2.991065722109141</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4469450755017874</v>
+        <v>0.5701087130302938</v>
       </c>
       <c r="D17">
-        <v>0.04185580702407776</v>
+        <v>0.03957386470499102</v>
       </c>
       <c r="E17">
-        <v>0.1903034634068419</v>
+        <v>0.2571201086698025</v>
       </c>
       <c r="F17">
-        <v>1.086356652641498</v>
+        <v>0.9885353308280145</v>
       </c>
       <c r="G17">
-        <v>0.002449702063457575</v>
+        <v>0.000776412362970003</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.973512173866993</v>
+        <v>5.388667348784793</v>
       </c>
       <c r="L17">
-        <v>0.1674069774077509</v>
+        <v>0.2388229255342225</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.187844751082281</v>
+        <v>0.7585812772918246</v>
       </c>
       <c r="O17">
-        <v>3.804859074032748</v>
+        <v>2.901285259173278</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4441726221170939</v>
+        <v>0.5569691162384629</v>
       </c>
       <c r="D18">
-        <v>0.04169083656431383</v>
+        <v>0.039104896957177</v>
       </c>
       <c r="E18">
-        <v>0.1890179724904044</v>
+        <v>0.2510725840744712</v>
       </c>
       <c r="F18">
-        <v>1.083952682185455</v>
+        <v>0.9690321953767267</v>
       </c>
       <c r="G18">
-        <v>0.002450484021951911</v>
+        <v>0.0007777025059716033</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.934389007854179</v>
+        <v>5.252378631956844</v>
       </c>
       <c r="L18">
-        <v>0.1661836184980814</v>
+        <v>0.2331042316123018</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.189067836766398</v>
+        <v>0.7602696601079231</v>
       </c>
       <c r="O18">
-        <v>3.80132230762635</v>
+        <v>2.850593116924955</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4432378222992384</v>
+        <v>0.5525361962943975</v>
       </c>
       <c r="D19">
-        <v>0.04163496529545085</v>
+        <v>0.03894617445997284</v>
       </c>
       <c r="E19">
-        <v>0.1885844348600898</v>
+        <v>0.2490324834055855</v>
       </c>
       <c r="F19">
-        <v>1.083151463456133</v>
+        <v>0.9624765020534198</v>
       </c>
       <c r="G19">
-        <v>0.002450750628368007</v>
+        <v>0.0007781406504160371</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.921145038856139</v>
+        <v>5.206286929894588</v>
       </c>
       <c r="L19">
-        <v>0.165770948494611</v>
+        <v>0.2311752044368092</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.189490208515082</v>
+        <v>0.7608647058450089</v>
       </c>
       <c r="O19">
-        <v>3.800168972193973</v>
+        <v>2.833587565420459</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4474600494512799</v>
+        <v>0.5725482497963696</v>
       </c>
       <c r="D20">
-        <v>0.04188633206137382</v>
+        <v>0.03966069079692858</v>
       </c>
       <c r="E20">
-        <v>0.1905421901330016</v>
+        <v>0.2582429887008217</v>
       </c>
       <c r="F20">
-        <v>1.086807620606493</v>
+        <v>0.992167943193337</v>
       </c>
       <c r="G20">
-        <v>0.002449558218077441</v>
+        <v>0.0007761742089964496</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.980754150363794</v>
+        <v>5.413917310835018</v>
       </c>
       <c r="L20">
-        <v>0.1676341246168818</v>
+        <v>0.2398848207156306</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.187622306195195</v>
+        <v>0.7582800090416129</v>
       </c>
       <c r="O20">
-        <v>3.805534633318331</v>
+        <v>2.910743372547586</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4619178845811689</v>
+        <v>0.6409743295077988</v>
       </c>
       <c r="D21">
-        <v>0.04272977024177038</v>
+        <v>0.04206648698048099</v>
       </c>
       <c r="E21">
-        <v>0.1972388620037009</v>
+        <v>0.2897488668846933</v>
       </c>
       <c r="F21">
-        <v>1.099978784679791</v>
+        <v>1.095463447343732</v>
       </c>
       <c r="G21">
-        <v>0.002445680138306956</v>
+        <v>0.000769655333736952</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.181196241476243</v>
+        <v>6.115645133312512</v>
       </c>
       <c r="L21">
-        <v>0.1740013091649786</v>
+        <v>0.2696890130900442</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.181920293592256</v>
+        <v>0.7512874658121547</v>
       </c>
       <c r="O21">
-        <v>3.826640524425045</v>
+        <v>3.181658113910203</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4715695151158457</v>
+        <v>0.6866806572915891</v>
       </c>
       <c r="D22">
-        <v>0.04328009098045982</v>
+        <v>0.04364367043733353</v>
       </c>
       <c r="E22">
-        <v>0.201704247733872</v>
+        <v>0.3108055013380238</v>
       </c>
       <c r="F22">
-        <v>1.109250111409338</v>
+        <v>1.165876448429046</v>
       </c>
       <c r="G22">
-        <v>0.00244324076640788</v>
+        <v>0.0007654555636685815</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.312309699959201</v>
+        <v>6.577843861719714</v>
       </c>
       <c r="L22">
-        <v>0.1782426911609747</v>
+        <v>0.2896189509801133</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.178620928590007</v>
+        <v>0.7480583140727788</v>
       </c>
       <c r="O22">
-        <v>3.842736213043622</v>
+        <v>3.368286017689513</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4663997153979835</v>
+        <v>0.6621893759871682</v>
       </c>
       <c r="D23">
-        <v>0.04298646327841738</v>
+        <v>0.04280138172939729</v>
       </c>
       <c r="E23">
-        <v>0.1993128614101849</v>
+        <v>0.2995213047932737</v>
       </c>
       <c r="F23">
-        <v>1.104241008863184</v>
+        <v>1.128012050705649</v>
       </c>
       <c r="G23">
-        <v>0.002444534022950618</v>
+        <v>0.0007676918397844497</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.242322219202038</v>
+        <v>6.330797874551024</v>
       </c>
       <c r="L23">
-        <v>0.175971648423328</v>
+        <v>0.2789374602798915</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.180342800634833</v>
+        <v>0.7496537173352493</v>
       </c>
       <c r="O23">
-        <v>3.833934534217207</v>
+        <v>3.267745577569684</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.447227162837919</v>
+        <v>0.5714450565453717</v>
       </c>
       <c r="D24">
-        <v>0.04187253220501219</v>
+        <v>0.03962143617435032</v>
       </c>
       <c r="E24">
-        <v>0.1904342326290305</v>
+        <v>0.2577352032960007</v>
       </c>
       <c r="F24">
-        <v>1.086603510505682</v>
+        <v>0.990524778417182</v>
       </c>
       <c r="G24">
-        <v>0.002449623215997607</v>
+        <v>0.0007762818530405413</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.977480064120812</v>
+        <v>5.402500985154404</v>
       </c>
       <c r="L24">
-        <v>0.1675314051862671</v>
+        <v>0.2394046109159547</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.187722722182244</v>
+        <v>0.7584157791892068</v>
       </c>
       <c r="O24">
-        <v>3.805228416803658</v>
+        <v>2.906464494111788</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4274157273099775</v>
+        <v>0.4771663701091597</v>
       </c>
       <c r="D25">
-        <v>0.04066756847577579</v>
+        <v>0.03620578433668697</v>
       </c>
       <c r="E25">
-        <v>0.181237309113925</v>
+        <v>0.2143576336738136</v>
       </c>
       <c r="F25">
-        <v>1.070412086016191</v>
+        <v>0.8530070958848768</v>
       </c>
       <c r="G25">
-        <v>0.002455524065573779</v>
+        <v>0.0007858394149615441</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.692347339377989</v>
+        <v>4.413353412906361</v>
       </c>
       <c r="L25">
-        <v>0.1587697240998125</v>
+        <v>0.1983987234036846</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.197520716973052</v>
+        <v>0.7731209292574235</v>
       </c>
       <c r="O25">
-        <v>3.784096522411318</v>
+        <v>2.552434985816035</v>
       </c>
     </row>
   </sheetData>
